--- a/misc/excel/sitespeed/sitespeedGraphs.xlsx
+++ b/misc/excel/sitespeed/sitespeedGraphs.xlsx
@@ -1,53 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samwh\Documents\GitHub\thesis\misc\excel\sitespeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E393F-39DE-4F09-8F52-2F0CB3F573D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9254657C-D44C-4C1C-84DD-61E98B93113A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="525" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitespeed.io - Old vs New Tests" sheetId="2" r:id="rId1"/>
     <sheet name="Sitespeed.io - Waterfall Test" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sitespeed.io - Waterfall Test'!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sitespeed.io - Waterfall Test'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sitespeed.io - Waterfall Test'!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sitespeed.io - Waterfall Test'!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sitespeed.io - Waterfall Test'!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sitespeed.io - Waterfall Test'!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sitespeed.io - Waterfall Test'!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sitespeed.io - Waterfall Test'!$D$2:$D$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sitespeed.io - Waterfall Test'!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Sitespeed.io - Waterfall Test'!$E$2:$E$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Sitespeed.io - Waterfall Test'!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Sitespeed.io - Waterfall Test'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sitespeed.io - Waterfall Test'!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Sitespeed.io - Waterfall Test'!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Sitespeed.io - Waterfall Test'!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Sitespeed.io - Waterfall Test'!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Sitespeed.io - Waterfall Test'!$D$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Sitespeed.io - Waterfall Test'!$D$2:$D$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Sitespeed.io - Waterfall Test'!$E$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Sitespeed.io - Waterfall Test'!$E$2:$E$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sitespeed.io - Waterfall Test'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sitespeed.io - Waterfall Test'!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sitespeed.io - Waterfall Test'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sitespeed.io - Waterfall Test'!$D$2:$D$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sitespeed.io - Waterfall Test'!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sitespeed.io - Waterfall Test'!$E$2:$E$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sitespeed.io - Waterfall Test'!$A$2:$A$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -332,17 +300,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -373,58 +341,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -719,6 +642,51 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -4505,179 +4473,44 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Examples"/>
-      <sheetName val="Sitespeed.io - Page Load Time"/>
-      <sheetName val="K6 - Spike Test "/>
-      <sheetName val="L4 - CSV Test"/>
-      <sheetName val="Content Size Per Type"/>
-      <sheetName val="Side by Side"/>
-      <sheetName val="Waterfall test"/>
-      <sheetName val="Open source load testing tool r"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Desktop</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Mobile</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>WordPress 
-(LAMP VM)</v>
-          </cell>
-          <cell r="C2">
-            <v>512</v>
-          </cell>
-          <cell r="D2">
-            <v>828</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>WordPress
-(LEMP VM)</v>
-          </cell>
-          <cell r="C3">
-            <v>345</v>
-          </cell>
-          <cell r="D3">
-            <v>717</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>WordPress 
-(LAMP WSL2)</v>
-          </cell>
-          <cell r="C4">
-            <v>376</v>
-          </cell>
-          <cell r="D4">
-            <v>758</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>WordPress 
-(LEMP WSL2)</v>
-          </cell>
-          <cell r="C5">
-            <v>309</v>
-          </cell>
-          <cell r="D5">
-            <v>644</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Jamstack 
-(LAMP VM)</v>
-          </cell>
-          <cell r="C6">
-            <v>199</v>
-          </cell>
-          <cell r="D6">
-            <v>446</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Jamstack 
-(LEMP VM)</v>
-          </cell>
-          <cell r="C7">
-            <v>153</v>
-          </cell>
-          <cell r="D7">
-            <v>424</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Jamstack 
-(LAMP WSL2)</v>
-          </cell>
-          <cell r="C8">
-            <v>226</v>
-          </cell>
-          <cell r="D8">
-            <v>493</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Jamstack 
-(LEMP WSL2)</v>
-          </cell>
-          <cell r="C9">
-            <v>146</v>
-          </cell>
-          <cell r="D9">
-            <v>432</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBA4B3D7-85B6-45C1-A0F5-6980ED483FD1}" name="Table24" displayName="Table24" ref="B2:E10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBA4B3D7-85B6-45C1-A0F5-6980ED483FD1}" name="Table24" displayName="Table24" ref="B2:E10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:E10" xr:uid="{BBA4B3D7-85B6-45C1-A0F5-6980ED483FD1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3AEE67BD-41A5-4932-B2DE-A335841CFB26}" name="Environment Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A85B77C5-05A6-4A11-979E-E16312D14854}" name="Desktop Old" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0E9EB7D7-938C-4951-831C-F78C3C9CD2EF}" name="Desktop New" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{B76ED431-790C-436F-A680-E3475338C701}" name="IP Address" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{3AEE67BD-41A5-4932-B2DE-A335841CFB26}" name="Environment Name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A85B77C5-05A6-4A11-979E-E16312D14854}" name="Desktop Old" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{0E9EB7D7-938C-4951-831C-F78C3C9CD2EF}" name="Desktop New" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B76ED431-790C-436F-A680-E3475338C701}" name="IP Address" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6A49FD96-3A8A-4668-95EF-EFF880715540}" name="Table246" displayName="Table246" ref="B13:E21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6A49FD96-3A8A-4668-95EF-EFF880715540}" name="Table246" displayName="Table246" ref="B13:E21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B13:E21" xr:uid="{6A49FD96-3A8A-4668-95EF-EFF880715540}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AFF649FE-AF5C-46AB-A21F-83895B58C120}" name="Environment Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{8480669A-A693-41D0-BD1D-ACB6FDAF3969}" name="Mobile Old" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{428AF81B-6637-4411-B59E-D2EB14F3E26C}" name="Mobile New" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{35BB4C0A-EA46-4C78-8778-4962B7101E42}" name="IP Address" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{AFF649FE-AF5C-46AB-A21F-83895B58C120}" name="Environment Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{8480669A-A693-41D0-BD1D-ACB6FDAF3969}" name="Mobile Old" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{428AF81B-6637-4411-B59E-D2EB14F3E26C}" name="Mobile New" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{35BB4C0A-EA46-4C78-8778-4962B7101E42}" name="IP Address" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2F1D4CA4-E1E2-4434-AE31-6342AD8D231B}" name="Table6" displayName="Table6" ref="A1:H10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2F1D4CA4-E1E2-4434-AE31-6342AD8D231B}" name="Table6" displayName="Table6" ref="A1:H10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H10" xr:uid="{2F1D4CA4-E1E2-4434-AE31-6342AD8D231B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DD28FCC3-BB98-4101-A3A9-31F6FA814F76}" name="Environments" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{25D77CC3-173A-43C2-9101-834B4E4BBCC8}" name="firstPaint " dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CCD3C4DA-DF04-48A7-A57D-453BFCAE59F7}" name="firstContentfulPaint " dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{98E4EDEB-1623-4B6A-AE59-5867A7305F29}" name="largestContentfulPaint " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EA555516-2C15-42DF-9AEB-8940F8B9FC0C}" name="onContentLoad " dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6F0653B6-B1AC-4608-9513-8EB21718F236}" name="domInteractiveTime " dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{A246060C-646F-4855-9D32-CCEC85930138}" name="domContentLoadedTime " dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{DC83ACF8-E13D-4920-92E9-8CF4428EBA1D}" name="onLoad " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DD28FCC3-BB98-4101-A3A9-31F6FA814F76}" name="Environments" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{25D77CC3-173A-43C2-9101-834B4E4BBCC8}" name="firstPaint " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CCD3C4DA-DF04-48A7-A57D-453BFCAE59F7}" name="firstContentfulPaint " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{98E4EDEB-1623-4B6A-AE59-5867A7305F29}" name="largestContentfulPaint " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EA555516-2C15-42DF-9AEB-8940F8B9FC0C}" name="onContentLoad " dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6F0653B6-B1AC-4608-9513-8EB21718F236}" name="domInteractiveTime " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A246060C-646F-4855-9D32-CCEC85930138}" name="domContentLoadedTime " dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{DC83ACF8-E13D-4920-92E9-8CF4428EBA1D}" name="onLoad " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5520,7 +5353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A7E211-07D7-4E92-9DCB-C4C73CC7B25C}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -5538,13 +5371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5579,7 +5412,7 @@
       <c r="D3" s="3">
         <v>468</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="4"/>
@@ -5599,7 +5432,7 @@
       <c r="D4" s="3">
         <v>344</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="4"/>
@@ -5619,7 +5452,7 @@
       <c r="D5" s="3">
         <v>358</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4"/>
@@ -5639,7 +5472,7 @@
       <c r="D6" s="3">
         <v>290</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="4"/>
@@ -5659,7 +5492,7 @@
       <c r="D7" s="3">
         <v>211</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="4"/>
@@ -5679,7 +5512,7 @@
       <c r="D8" s="3">
         <v>137</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="4"/>
@@ -5699,7 +5532,7 @@
       <c r="D9" s="3">
         <v>216</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="4"/>
@@ -5719,7 +5552,7 @@
       <c r="D10" s="3">
         <v>155</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4"/>
@@ -5727,13 +5560,13 @@
       <c r="H10" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -5765,7 +5598,7 @@
       <c r="D14" s="3">
         <v>742</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5782,7 +5615,7 @@
       <c r="D15" s="3">
         <v>627</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5799,7 +5632,7 @@
       <c r="D16" s="3">
         <v>627</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5816,7 +5649,7 @@
       <c r="D17" s="3">
         <v>546</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5833,7 +5666,7 @@
       <c r="D18" s="3">
         <v>372</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5850,7 +5683,7 @@
       <c r="D19" s="3">
         <v>361</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5867,7 +5700,7 @@
       <c r="D20" s="3">
         <v>430</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5884,32 +5717,32 @@
       <c r="D21" s="3">
         <v>362</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5948,7 +5781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC359DE-CD19-48C8-9BA0-BBDCB54EAC63}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
@@ -5991,7 +5824,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="7">
@@ -6011,7 +5844,7 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="7">
@@ -6031,7 +5864,7 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="7">
@@ -6051,7 +5884,7 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="7">
@@ -6071,7 +5904,7 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="7">
@@ -6091,7 +5924,7 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="7">
@@ -6111,7 +5944,7 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7">
@@ -6131,7 +5964,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="7">
@@ -6151,7 +5984,7 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="7">
